--- a/data/lang.xlsx
+++ b/data/lang.xlsx
@@ -498,25 +498,25 @@
         <v>0.3</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G2" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
         <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1794871794871795</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="J2" t="n">
-        <v>0.21875</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1971830985915493</v>
+        <v>0.3835616438356164</v>
       </c>
     </row>
     <row r="3">
@@ -539,25 +539,25 @@
         <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G3" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H3" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.125</v>
       </c>
       <c r="J3" t="n">
-        <v>0.25</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K3" t="n">
-        <v>0.186046511627907</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="4">
@@ -580,25 +580,25 @@
         <v>0.7</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="G4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H4" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1449275362318841</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3125</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K4" t="n">
-        <v>0.198019801980198</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="5">
@@ -621,25 +621,25 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G5" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1875</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1188118811881188</v>
+        <v>0.08547008547008547</v>
       </c>
     </row>
     <row r="6">
@@ -662,25 +662,25 @@
         <v>1.3</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G6" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H6" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1875</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1008403361344538</v>
+        <v>0.1311475409836066</v>
       </c>
     </row>
     <row r="7">
@@ -703,25 +703,25 @@
         <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="G7" t="n">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H7" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04938271604938271</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="J7" t="n">
-        <v>0.125</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07079646017699115</v>
+        <v>0.1029411764705882</v>
       </c>
     </row>
     <row r="8">
@@ -744,25 +744,25 @@
         <v>1.7</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G8" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04081632653061224</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="J8" t="n">
-        <v>0.125</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.1073825503355705</v>
       </c>
     </row>
     <row r="9">
@@ -785,25 +785,25 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>913</v>
+        <v>894</v>
       </c>
       <c r="G9" t="n">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="H9" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07446808510638298</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="J9" t="n">
-        <v>0.21875</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="10">
@@ -826,25 +826,25 @@
         <v>0.3</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.4</v>
       </c>
       <c r="J10" t="n">
-        <v>0.21875</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.3783783783783784</v>
       </c>
     </row>
     <row r="11">
@@ -867,25 +867,25 @@
         <v>0.5</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H11" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0625</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.2191780821917808</v>
       </c>
     </row>
     <row r="12">
@@ -908,25 +908,25 @@
         <v>0.7</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09375</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1935483870967742</v>
       </c>
     </row>
     <row r="13">
@@ -952,22 +952,22 @@
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G13" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H13" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="J13" t="n">
-        <v>0.125</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="14">
@@ -993,22 +993,22 @@
         <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="G14" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H14" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="J14" t="n">
-        <v>0.125</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -1031,25 +1031,25 @@
         <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="G15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0625</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.1492537313432836</v>
       </c>
     </row>
     <row r="16">
@@ -1072,25 +1072,25 @@
         <v>1.7</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>817</v>
       </c>
       <c r="G16" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.15625</v>
       </c>
       <c r="J16" t="n">
-        <v>0.09375</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K16" t="n">
-        <v>0.103448275862069</v>
+        <v>0.1408450704225352</v>
       </c>
     </row>
     <row r="17">
@@ -1119,19 +1119,19 @@
         <v>969</v>
       </c>
       <c r="G17" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H17" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0625</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.05333333333333334</v>
       </c>
     </row>
     <row r="18">
@@ -1154,25 +1154,25 @@
         <v>0.3</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G18" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="J18" t="n">
-        <v>0.46875</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3488372093023256</v>
+        <v>0.4086021505376344</v>
       </c>
     </row>
     <row r="19">
@@ -1195,25 +1195,25 @@
         <v>0.5</v>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F19" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G19" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.1338028169014084</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4375</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1728395061728395</v>
+        <v>0.2099447513812155</v>
       </c>
     </row>
     <row r="20">
@@ -1236,25 +1236,25 @@
         <v>0.7</v>
       </c>
       <c r="E20" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G20" t="n">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07865168539325842</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4375</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1716738197424893</v>
       </c>
     </row>
     <row r="21">
@@ -1277,25 +1277,25 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G21" t="n">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="H21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06097560975609756</v>
+        <v>0.07662835249042145</v>
       </c>
       <c r="J21" t="n">
-        <v>0.46875</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1079136690647482</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="22">
@@ -1318,25 +1318,25 @@
         <v>1.3</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F22" t="n">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G22" t="n">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="H22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04983388704318937</v>
+        <v>0.06461538461538462</v>
       </c>
       <c r="J22" t="n">
-        <v>0.46875</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="K22" t="n">
-        <v>0.09009009009009009</v>
+        <v>0.1153846153846154</v>
       </c>
     </row>
     <row r="23">
@@ -1359,25 +1359,25 @@
         <v>1.5</v>
       </c>
       <c r="E23" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="G23" t="n">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="H23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I23" t="n">
-        <v>0.04373177842565597</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="J23" t="n">
-        <v>0.46875</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="K23" t="n">
-        <v>0.08</v>
+        <v>0.1037037037037037</v>
       </c>
     </row>
     <row r="24">
@@ -1400,25 +1400,25 @@
         <v>1.7</v>
       </c>
       <c r="E24" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F24" t="n">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G24" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0379746835443038</v>
+        <v>0.05223880597014925</v>
       </c>
       <c r="J24" t="n">
-        <v>0.46875</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="K24" t="n">
-        <v>0.07025761124121779</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="25">
@@ -1441,25 +1441,25 @@
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F25" t="n">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G25" t="n">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="H25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03239740820734342</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="J25" t="n">
-        <v>0.46875</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="K25" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.08155339805825243</v>
       </c>
     </row>
     <row r="26">
@@ -1485,22 +1485,22 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H26" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3125</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3278688524590164</v>
       </c>
     </row>
     <row r="27">
@@ -1523,25 +1523,25 @@
         <v>0.5</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" t="n">
         <v>201</v>
       </c>
       <c r="G27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H27" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I27" t="n">
-        <v>0.28125</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="J27" t="n">
-        <v>0.28125</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="K27" t="n">
-        <v>0.28125</v>
+        <v>0.273972602739726</v>
       </c>
     </row>
     <row r="28">
@@ -1567,22 +1567,22 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G28" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H28" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="J28" t="n">
-        <v>0.21875</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K28" t="n">
-        <v>0.208955223880597</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="29">
@@ -1608,22 +1608,22 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G29" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H29" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1590909090909091</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>0.21875</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1609195402298851</v>
       </c>
     </row>
     <row r="30">
@@ -1649,22 +1649,22 @@
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G30" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H30" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1320754716981132</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="J30" t="n">
-        <v>0.21875</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1647058823529412</v>
+        <v>0.1414141414141414</v>
       </c>
     </row>
     <row r="31">
@@ -1690,22 +1690,22 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G31" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H31" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1186440677966102</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J31" t="n">
-        <v>0.21875</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1372549019607843</v>
       </c>
     </row>
     <row r="32">
@@ -1731,22 +1731,22 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G32" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H32" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1206896551724138</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="J32" t="n">
-        <v>0.21875</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1555555555555556</v>
+        <v>0.1346153846153846</v>
       </c>
     </row>
     <row r="33">
@@ -1769,25 +1769,25 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="G33" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I33" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1875</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1224489795918367</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="34">
@@ -1810,25 +1810,25 @@
         <v>0.3</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F34" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G34" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H34" t="n">
         <v>23</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="J34" t="n">
-        <v>0.28125</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1836734693877551</v>
+        <v>0.2962962962962963</v>
       </c>
     </row>
     <row r="35">
@@ -1851,25 +1851,25 @@
         <v>0.5</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G35" t="n">
         <v>82</v>
       </c>
       <c r="H35" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0989010989010989</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="J35" t="n">
-        <v>0.28125</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1463414634146341</v>
+        <v>0.09448818897637795</v>
       </c>
     </row>
     <row r="36">
@@ -1892,25 +1892,25 @@
         <v>0.7</v>
       </c>
       <c r="E36" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F36" t="n">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G36" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H36" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I36" t="n">
-        <v>0.04807692307692308</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J36" t="n">
-        <v>0.15625</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="K36" t="n">
-        <v>0.07352941176470588</v>
+        <v>0.1059602649006623</v>
       </c>
     </row>
     <row r="37">
@@ -1936,22 +1936,22 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G37" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H37" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I37" t="n">
-        <v>0.04964539007092199</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="J37" t="n">
-        <v>0.21875</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K37" t="n">
-        <v>0.08092485549132948</v>
+        <v>0.07526881720430108</v>
       </c>
     </row>
     <row r="38">
@@ -1974,25 +1974,25 @@
         <v>1.3</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G38" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H38" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I38" t="n">
-        <v>0.05095541401273886</v>
+        <v>0.0426829268292683</v>
       </c>
       <c r="J38" t="n">
-        <v>0.25</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K38" t="n">
-        <v>0.08465608465608465</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="39">
@@ -2018,22 +2018,22 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="G39" t="n">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H39" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I39" t="n">
-        <v>0.04430379746835443</v>
+        <v>0.04191616766467066</v>
       </c>
       <c r="J39" t="n">
-        <v>0.21875</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K39" t="n">
-        <v>0.07368421052631578</v>
+        <v>0.06796116504854369</v>
       </c>
     </row>
     <row r="40">
@@ -2059,22 +2059,22 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="G40" t="n">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H40" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03977272727272727</v>
+        <v>0.04046242774566474</v>
       </c>
       <c r="J40" t="n">
-        <v>0.21875</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0673076923076923</v>
+        <v>0.0660377358490566</v>
       </c>
     </row>
     <row r="41">
@@ -2097,25 +2097,25 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G41" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="H41" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01724137931034483</v>
+        <v>0.03763440860215054</v>
       </c>
       <c r="J41" t="n">
-        <v>0.09375</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K41" t="n">
-        <v>0.02912621359223301</v>
+        <v>0.06222222222222222</v>
       </c>
     </row>
     <row r="42">
@@ -2141,22 +2141,22 @@
         <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G42" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H42" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I42" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0625</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="K42" t="n">
-        <v>0.07547169811320754</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="43">
@@ -2182,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H43" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2223,13 +2223,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2264,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2305,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2346,13 +2346,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2387,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2428,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2469,13 +2469,13 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2592,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2756,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="G57" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3002,13 +3002,13 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -3084,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3122,25 +3122,25 @@
         <v>0.3</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F66" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G66" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H66" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2045454545454546</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="J66" t="n">
-        <v>0.28125</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2448979591836735</v>
       </c>
     </row>
     <row r="67">
@@ -3163,25 +3163,25 @@
         <v>0.5</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F67" t="n">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="G67" t="n">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="H67" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I67" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="J67" t="n">
-        <v>0.28125</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="K67" t="n">
-        <v>0.1208053691275168</v>
+        <v>0.1914893617021277</v>
       </c>
     </row>
     <row r="68">
@@ -3204,25 +3204,25 @@
         <v>0.7</v>
       </c>
       <c r="E68" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F68" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G68" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H68" t="n">
         <v>21</v>
       </c>
       <c r="I68" t="n">
-        <v>0.06470588235294118</v>
+        <v>0.1</v>
       </c>
       <c r="J68" t="n">
-        <v>0.34375</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="K68" t="n">
-        <v>0.1089108910891089</v>
+        <v>0.1643835616438356</v>
       </c>
     </row>
     <row r="69">
@@ -3245,25 +3245,25 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F69" t="n">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="G69" t="n">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="H69" t="n">
         <v>20</v>
       </c>
       <c r="I69" t="n">
-        <v>0.04979253112033195</v>
+        <v>0.07063197026022305</v>
       </c>
       <c r="J69" t="n">
-        <v>0.375</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="K69" t="n">
-        <v>0.08791208791208792</v>
+        <v>0.1233766233766234</v>
       </c>
     </row>
     <row r="70">
@@ -3286,25 +3286,25 @@
         <v>1.3</v>
       </c>
       <c r="E70" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F70" t="n">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="G70" t="n">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="H70" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I70" t="n">
-        <v>0.04777070063694268</v>
+        <v>0.05523255813953488</v>
       </c>
       <c r="J70" t="n">
-        <v>0.46875</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="K70" t="n">
-        <v>0.08670520231213873</v>
+        <v>0.09921671018276762</v>
       </c>
     </row>
     <row r="71">
@@ -3327,25 +3327,25 @@
         <v>1.5</v>
       </c>
       <c r="E71" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F71" t="n">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="G71" t="n">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="H71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I71" t="n">
-        <v>0.03591160220994475</v>
+        <v>0.04580152671755725</v>
       </c>
       <c r="J71" t="n">
-        <v>0.40625</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="K71" t="n">
-        <v>0.06598984771573604</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="72">
@@ -3368,25 +3368,25 @@
         <v>1.7</v>
       </c>
       <c r="E72" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="G72" t="n">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="H72" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I72" t="n">
-        <v>0.03233830845771144</v>
+        <v>0.03953488372093023</v>
       </c>
       <c r="J72" t="n">
-        <v>0.40625</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="K72" t="n">
-        <v>0.05990783410138249</v>
+        <v>0.07249466950959488</v>
       </c>
     </row>
     <row r="73">
@@ -3409,25 +3409,25 @@
         <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="G73" t="n">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="H73" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I73" t="n">
-        <v>0.02360515021459228</v>
+        <v>0.0368763557483731</v>
       </c>
       <c r="J73" t="n">
-        <v>0.34375</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="K73" t="n">
-        <v>0.04417670682730924</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="74">
@@ -3453,22 +3453,22 @@
         <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I74" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J74" t="n">
-        <v>0.0625</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="K74" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.08888888888888889</v>
       </c>
     </row>
     <row r="75">
@@ -3494,22 +3494,22 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0.03125</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="K75" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="76">
@@ -3532,25 +3532,25 @@
         <v>0.7</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3573,25 +3573,25 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>0.06060606060606061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3617,13 +3617,13 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3699,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3740,13 +3740,13 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
